--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Calr-Itga3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Calr-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H2">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I2">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J2">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.13707495566744</v>
+        <v>7.582021999999999</v>
       </c>
       <c r="N2">
-        <v>4.13707495566744</v>
+        <v>22.746066</v>
       </c>
       <c r="O2">
-        <v>0.5788032786529365</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="P2">
-        <v>0.5788032786529365</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="Q2">
-        <v>162.6125852449797</v>
+        <v>351.1069302307653</v>
       </c>
       <c r="R2">
-        <v>162.6125852449797</v>
+        <v>3159.962372076888</v>
       </c>
       <c r="S2">
-        <v>0.02839742700596472</v>
+        <v>0.03842243346335846</v>
       </c>
       <c r="T2">
-        <v>0.02839742700596472</v>
+        <v>0.03842243346335846</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H3">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I3">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J3">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.0105607061342</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N3">
-        <v>3.0105607061342</v>
+        <v>0.52837</v>
       </c>
       <c r="O3">
-        <v>0.4211967213470636</v>
+        <v>0.01603921708027116</v>
       </c>
       <c r="P3">
-        <v>0.4211967213470636</v>
+        <v>0.01603921708027116</v>
       </c>
       <c r="Q3">
-        <v>118.3336209054625</v>
+        <v>8.155888087462221</v>
       </c>
       <c r="R3">
-        <v>118.3336209054625</v>
+        <v>73.40299278715999</v>
       </c>
       <c r="S3">
-        <v>0.02066488492850596</v>
+        <v>0.0008925174651755037</v>
       </c>
       <c r="T3">
-        <v>0.02066488492850596</v>
+        <v>0.0008925174651755037</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>334.921136616785</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H4">
-        <v>334.921136616785</v>
+        <v>138.923468</v>
       </c>
       <c r="I4">
-        <v>0.4180515143103763</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J4">
-        <v>0.4180515143103763</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.13707495566744</v>
+        <v>0.08017533333333333</v>
       </c>
       <c r="N4">
-        <v>4.13707495566744</v>
+        <v>0.240526</v>
       </c>
       <c r="O4">
-        <v>0.5788032786529365</v>
+        <v>0.007301415158788918</v>
       </c>
       <c r="P4">
-        <v>0.5788032786529365</v>
+        <v>0.007301415158788917</v>
       </c>
       <c r="Q4">
-        <v>1385.593846420975</v>
+        <v>3.712745118240888</v>
       </c>
       <c r="R4">
-        <v>1385.593846420975</v>
+        <v>33.41470606416799</v>
       </c>
       <c r="S4">
-        <v>0.2419695871286708</v>
+        <v>0.0004062941798906131</v>
       </c>
       <c r="T4">
-        <v>0.2419695871286708</v>
+        <v>0.0004062941798906131</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>334.921136616785</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H5">
-        <v>334.921136616785</v>
+        <v>138.923468</v>
       </c>
       <c r="I5">
-        <v>0.4180515143103763</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J5">
-        <v>0.4180515143103763</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.0105607061342</v>
+        <v>0.116695</v>
       </c>
       <c r="N5">
-        <v>3.0105607061342</v>
+        <v>0.350085</v>
       </c>
       <c r="O5">
-        <v>0.4211967213470636</v>
+        <v>0.01062719176248979</v>
       </c>
       <c r="P5">
-        <v>0.4211967213470636</v>
+        <v>0.01062719176248978</v>
       </c>
       <c r="Q5">
-        <v>1008.300413552297</v>
+        <v>5.403891366086666</v>
       </c>
       <c r="R5">
-        <v>1008.300413552297</v>
+        <v>48.63502229477999</v>
       </c>
       <c r="S5">
-        <v>0.1760819271817056</v>
+        <v>0.0005913601771409548</v>
       </c>
       <c r="T5">
-        <v>0.1760819271817056</v>
+        <v>0.0005913601771409547</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>131.021230820363</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H6">
-        <v>131.021230820363</v>
+        <v>138.923468</v>
       </c>
       <c r="I6">
-        <v>0.1635418549708727</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J6">
-        <v>0.1635418549708727</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.13707495566744</v>
+        <v>3.025778</v>
       </c>
       <c r="N6">
-        <v>4.13707495566744</v>
+        <v>9.077334</v>
       </c>
       <c r="O6">
-        <v>0.5788032786529365</v>
+        <v>0.2755518491514017</v>
       </c>
       <c r="P6">
-        <v>0.5788032786529365</v>
+        <v>0.2755518491514017</v>
       </c>
       <c r="Q6">
-        <v>542.0446526876467</v>
+        <v>140.1171910527013</v>
       </c>
       <c r="R6">
-        <v>542.0446526876467</v>
+        <v>1261.054719474312</v>
       </c>
       <c r="S6">
-        <v>0.09465856185412418</v>
+        <v>0.01533334430840399</v>
       </c>
       <c r="T6">
-        <v>0.09465856185412418</v>
+        <v>0.01533334430840399</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>131.021230820363</v>
+        <v>335.81602</v>
       </c>
       <c r="H7">
-        <v>131.021230820363</v>
+        <v>1007.44806</v>
       </c>
       <c r="I7">
-        <v>0.1635418549708727</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J7">
-        <v>0.1635418549708727</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.0105607061342</v>
+        <v>7.582021999999999</v>
       </c>
       <c r="N7">
-        <v>3.0105607061342</v>
+        <v>22.746066</v>
       </c>
       <c r="O7">
-        <v>0.4211967213470636</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="P7">
-        <v>0.4211967213470636</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="Q7">
-        <v>394.447369177124</v>
+        <v>2546.16445159244</v>
       </c>
       <c r="R7">
-        <v>394.447369177124</v>
+        <v>22915.48006433196</v>
       </c>
       <c r="S7">
-        <v>0.06888329311674857</v>
+        <v>0.2786325925374939</v>
       </c>
       <c r="T7">
-        <v>0.06888329311674857</v>
+        <v>0.2786325925374939</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,184 +906,184 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>131.503878934824</v>
+        <v>335.81602</v>
       </c>
       <c r="H8">
-        <v>131.503878934824</v>
+        <v>1007.44806</v>
       </c>
       <c r="I8">
-        <v>0.1641443006008132</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J8">
-        <v>0.1641443006008132</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>4.13707495566744</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N8">
-        <v>4.13707495566744</v>
+        <v>0.52837</v>
       </c>
       <c r="O8">
-        <v>0.5788032786529365</v>
+        <v>0.01603921708027116</v>
       </c>
       <c r="P8">
-        <v>0.5788032786529365</v>
+        <v>0.01603921708027116</v>
       </c>
       <c r="Q8">
-        <v>544.0414041143835</v>
+        <v>59.14503682913334</v>
       </c>
       <c r="R8">
-        <v>544.0414041143835</v>
+        <v>532.3053314622</v>
       </c>
       <c r="S8">
-        <v>0.09500725935994384</v>
+        <v>0.006472376494424822</v>
       </c>
       <c r="T8">
-        <v>0.09500725935994384</v>
+        <v>0.006472376494424822</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>131.503878934824</v>
+        <v>335.81602</v>
       </c>
       <c r="H9">
-        <v>131.503878934824</v>
+        <v>1007.44806</v>
       </c>
       <c r="I9">
-        <v>0.1641443006008132</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J9">
-        <v>0.1641443006008132</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.0105607061342</v>
+        <v>0.08017533333333333</v>
       </c>
       <c r="N9">
-        <v>3.0105607061342</v>
+        <v>0.240526</v>
       </c>
       <c r="O9">
-        <v>0.4211967213470636</v>
+        <v>0.007301415158788918</v>
       </c>
       <c r="P9">
-        <v>0.4211967213470636</v>
+        <v>0.007301415158788917</v>
       </c>
       <c r="Q9">
-        <v>395.9004106254101</v>
+        <v>26.92416134217334</v>
       </c>
       <c r="R9">
-        <v>395.9004106254101</v>
+        <v>242.31745207956</v>
       </c>
       <c r="S9">
-        <v>0.06913704124086935</v>
+        <v>0.002946372482726167</v>
       </c>
       <c r="T9">
-        <v>0.06913704124086935</v>
+        <v>0.002946372482726167</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>106.672122579769</v>
+        <v>335.81602</v>
       </c>
       <c r="H10">
-        <v>106.672122579769</v>
+        <v>1007.44806</v>
       </c>
       <c r="I10">
-        <v>0.1331490834817011</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J10">
-        <v>0.1331490834817011</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>4.13707495566744</v>
+        <v>0.116695</v>
       </c>
       <c r="N10">
-        <v>4.13707495566744</v>
+        <v>0.350085</v>
       </c>
       <c r="O10">
-        <v>0.5788032786529365</v>
+        <v>0.01062719176248979</v>
       </c>
       <c r="P10">
-        <v>0.5788032786529365</v>
+        <v>0.01062719176248978</v>
       </c>
       <c r="Q10">
-        <v>441.3105667926496</v>
+        <v>39.1880504539</v>
       </c>
       <c r="R10">
-        <v>441.3105667926496</v>
+        <v>352.6924540851</v>
       </c>
       <c r="S10">
-        <v>0.07706712606884213</v>
+        <v>0.004288437884533024</v>
       </c>
       <c r="T10">
-        <v>0.07706712606884213</v>
+        <v>0.004288437884533024</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>106.672122579769</v>
+        <v>335.81602</v>
       </c>
       <c r="H11">
-        <v>106.672122579769</v>
+        <v>1007.44806</v>
       </c>
       <c r="I11">
-        <v>0.1331490834817011</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J11">
-        <v>0.1331490834817011</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.0105607061342</v>
+        <v>3.025778</v>
       </c>
       <c r="N11">
-        <v>3.0105607061342</v>
+        <v>9.077334</v>
       </c>
       <c r="O11">
-        <v>0.4211967213470636</v>
+        <v>0.2755518491514017</v>
       </c>
       <c r="P11">
-        <v>0.4211967213470636</v>
+        <v>0.2755518491514017</v>
       </c>
       <c r="Q11">
-        <v>321.1429006785833</v>
+        <v>1016.10472536356</v>
       </c>
       <c r="R11">
-        <v>321.1429006785833</v>
+        <v>9144.94252827204</v>
       </c>
       <c r="S11">
-        <v>0.05608195741285896</v>
+        <v>0.1111946613427016</v>
       </c>
       <c r="T11">
-        <v>0.05608195741285896</v>
+        <v>0.1111946613427016</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,114 +1157,1230 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>57.7234625843292</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H12">
-        <v>57.7234625843292</v>
+        <v>448.305122</v>
       </c>
       <c r="I12">
-        <v>0.07205093470176584</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J12">
-        <v>0.07205093470176584</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.13707495566744</v>
+        <v>7.582021999999999</v>
       </c>
       <c r="N12">
-        <v>4.13707495566744</v>
+        <v>22.746066</v>
       </c>
       <c r="O12">
-        <v>0.5788032786529365</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="P12">
-        <v>0.5788032786529365</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="Q12">
-        <v>238.8062914120349</v>
+        <v>1133.019765905561</v>
       </c>
       <c r="R12">
-        <v>238.8062914120349</v>
+        <v>10197.17789315005</v>
       </c>
       <c r="S12">
-        <v>0.0417033172353907</v>
+        <v>0.1239889413164362</v>
       </c>
       <c r="T12">
-        <v>0.0417033172353907</v>
+        <v>0.1239889413164362</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>149.4350406666667</v>
+      </c>
+      <c r="H13">
+        <v>448.305122</v>
+      </c>
+      <c r="I13">
+        <v>0.1795691151442488</v>
+      </c>
+      <c r="J13">
+        <v>0.1795691151442488</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.52837</v>
+      </c>
+      <c r="O13">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="P13">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="Q13">
+        <v>26.31899747901555</v>
+      </c>
+      <c r="R13">
+        <v>236.87097731114</v>
+      </c>
+      <c r="S13">
+        <v>0.002880148018710812</v>
+      </c>
+      <c r="T13">
+        <v>0.002880148018710813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>149.4350406666667</v>
+      </c>
+      <c r="H14">
+        <v>448.305122</v>
+      </c>
+      <c r="I14">
+        <v>0.1795691151442488</v>
+      </c>
+      <c r="J14">
+        <v>0.1795691151442488</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.08017533333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.240526</v>
+      </c>
+      <c r="O14">
+        <v>0.007301415158788918</v>
+      </c>
+      <c r="P14">
+        <v>0.007301415158788917</v>
+      </c>
+      <c r="Q14">
+        <v>11.98100419713022</v>
+      </c>
+      <c r="R14">
+        <v>107.829037774172</v>
+      </c>
+      <c r="S14">
+        <v>0.00131110865936453</v>
+      </c>
+      <c r="T14">
+        <v>0.00131110865936453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>149.4350406666667</v>
+      </c>
+      <c r="H15">
+        <v>448.305122</v>
+      </c>
+      <c r="I15">
+        <v>0.1795691151442488</v>
+      </c>
+      <c r="J15">
+        <v>0.1795691151442488</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.116695</v>
+      </c>
+      <c r="N15">
+        <v>0.350085</v>
+      </c>
+      <c r="O15">
+        <v>0.01062719176248979</v>
+      </c>
+      <c r="P15">
+        <v>0.01062719176248978</v>
+      </c>
+      <c r="Q15">
+        <v>17.43832207059666</v>
+      </c>
+      <c r="R15">
+        <v>156.94489863537</v>
+      </c>
+      <c r="S15">
+        <v>0.00190831542125854</v>
+      </c>
+      <c r="T15">
+        <v>0.00190831542125854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>149.4350406666667</v>
+      </c>
+      <c r="H16">
+        <v>448.305122</v>
+      </c>
+      <c r="I16">
+        <v>0.1795691151442488</v>
+      </c>
+      <c r="J16">
+        <v>0.1795691151442488</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.025778</v>
+      </c>
+      <c r="N16">
+        <v>9.077334</v>
+      </c>
+      <c r="O16">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="P16">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="Q16">
+        <v>452.1572584783053</v>
+      </c>
+      <c r="R16">
+        <v>4069.415326304748</v>
+      </c>
+      <c r="S16">
+        <v>0.04948060172847872</v>
+      </c>
+      <c r="T16">
+        <v>0.04948060172847872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>132.544937</v>
+      </c>
+      <c r="H17">
+        <v>397.634811</v>
+      </c>
+      <c r="I17">
+        <v>0.1592730657264732</v>
+      </c>
+      <c r="J17">
+        <v>0.1592730657264732</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.582021999999999</v>
+      </c>
+      <c r="N17">
+        <v>22.746066</v>
+      </c>
+      <c r="O17">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="P17">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="Q17">
+        <v>1004.958628322614</v>
+      </c>
+      <c r="R17">
+        <v>9044.627654903526</v>
+      </c>
+      <c r="S17">
+        <v>0.1099749184807467</v>
+      </c>
+      <c r="T17">
+        <v>0.1099749184807467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>132.544937</v>
+      </c>
+      <c r="H18">
+        <v>397.634811</v>
+      </c>
+      <c r="I18">
+        <v>0.1592730657264732</v>
+      </c>
+      <c r="J18">
+        <v>0.1592730657264732</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.52837</v>
+      </c>
+      <c r="O18">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="P18">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="Q18">
+        <v>23.34425612089667</v>
+      </c>
+      <c r="R18">
+        <v>210.09830508807</v>
+      </c>
+      <c r="S18">
+        <v>0.0025546152762272</v>
+      </c>
+      <c r="T18">
+        <v>0.0025546152762272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>132.544937</v>
+      </c>
+      <c r="H19">
+        <v>397.634811</v>
+      </c>
+      <c r="I19">
+        <v>0.1592730657264732</v>
+      </c>
+      <c r="J19">
+        <v>0.1592730657264732</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.08017533333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.240526</v>
+      </c>
+      <c r="O19">
+        <v>0.007301415158788918</v>
+      </c>
+      <c r="P19">
+        <v>0.007301415158788917</v>
+      </c>
+      <c r="Q19">
+        <v>10.62683450562067</v>
+      </c>
+      <c r="R19">
+        <v>95.64151055058601</v>
+      </c>
+      <c r="S19">
+        <v>0.001162918776482055</v>
+      </c>
+      <c r="T19">
+        <v>0.001162918776482055</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>132.544937</v>
+      </c>
+      <c r="H20">
+        <v>397.634811</v>
+      </c>
+      <c r="I20">
+        <v>0.1592730657264732</v>
+      </c>
+      <c r="J20">
+        <v>0.1592730657264732</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.116695</v>
+      </c>
+      <c r="N20">
+        <v>0.350085</v>
+      </c>
+      <c r="O20">
+        <v>0.01062719176248979</v>
+      </c>
+      <c r="P20">
+        <v>0.01062719176248978</v>
+      </c>
+      <c r="Q20">
+        <v>15.467331423215</v>
+      </c>
+      <c r="R20">
+        <v>139.205982808935</v>
+      </c>
+      <c r="S20">
+        <v>0.001692625412074871</v>
+      </c>
+      <c r="T20">
+        <v>0.00169262541207487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>57.7234625843292</v>
-      </c>
-      <c r="H13">
-        <v>57.7234625843292</v>
-      </c>
-      <c r="I13">
-        <v>0.07205093470176584</v>
-      </c>
-      <c r="J13">
-        <v>0.07205093470176584</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.0105607061342</v>
-      </c>
-      <c r="N13">
-        <v>3.0105607061342</v>
-      </c>
-      <c r="O13">
-        <v>0.4211967213470636</v>
-      </c>
-      <c r="P13">
-        <v>0.4211967213470636</v>
-      </c>
-      <c r="Q13">
-        <v>173.7799882783892</v>
-      </c>
-      <c r="R13">
-        <v>173.7799882783892</v>
-      </c>
-      <c r="S13">
-        <v>0.03034761746637514</v>
-      </c>
-      <c r="T13">
-        <v>0.03034761746637514</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>132.544937</v>
+      </c>
+      <c r="H21">
+        <v>397.634811</v>
+      </c>
+      <c r="I21">
+        <v>0.1592730657264732</v>
+      </c>
+      <c r="J21">
+        <v>0.1592730657264732</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.025778</v>
+      </c>
+      <c r="N21">
+        <v>9.077334</v>
+      </c>
+      <c r="O21">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="P21">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="Q21">
+        <v>401.051554385986</v>
+      </c>
+      <c r="R21">
+        <v>3609.463989473874</v>
+      </c>
+      <c r="S21">
+        <v>0.04388798778094245</v>
+      </c>
+      <c r="T21">
+        <v>0.04388798778094244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>108.3486913333333</v>
+      </c>
+      <c r="H22">
+        <v>325.046074</v>
+      </c>
+      <c r="I22">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="J22">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>7.582021999999999</v>
+      </c>
+      <c r="N22">
+        <v>22.746066</v>
+      </c>
+      <c r="O22">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="P22">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="Q22">
+        <v>821.5021613605425</v>
+      </c>
+      <c r="R22">
+        <v>7393.519452244883</v>
+      </c>
+      <c r="S22">
+        <v>0.08989885820292717</v>
+      </c>
+      <c r="T22">
+        <v>0.08989885820292717</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>108.3486913333333</v>
+      </c>
+      <c r="H23">
+        <v>325.046074</v>
+      </c>
+      <c r="I23">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="J23">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.52837</v>
+      </c>
+      <c r="O23">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="P23">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="Q23">
+        <v>19.08273267993111</v>
+      </c>
+      <c r="R23">
+        <v>171.74459411938</v>
+      </c>
+      <c r="S23">
+        <v>0.002088267030821093</v>
+      </c>
+      <c r="T23">
+        <v>0.002088267030821093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>108.3486913333333</v>
+      </c>
+      <c r="H24">
+        <v>325.046074</v>
+      </c>
+      <c r="I24">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="J24">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.08017533333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.240526</v>
+      </c>
+      <c r="O24">
+        <v>0.007301415158788918</v>
+      </c>
+      <c r="P24">
+        <v>0.007301415158788917</v>
+      </c>
+      <c r="Q24">
+        <v>8.686892443880444</v>
+      </c>
+      <c r="R24">
+        <v>78.18203199492399</v>
+      </c>
+      <c r="S24">
+        <v>0.000950626484954245</v>
+      </c>
+      <c r="T24">
+        <v>0.0009506264849542449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>108.3486913333333</v>
+      </c>
+      <c r="H25">
+        <v>325.046074</v>
+      </c>
+      <c r="I25">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="J25">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.116695</v>
+      </c>
+      <c r="N25">
+        <v>0.350085</v>
+      </c>
+      <c r="O25">
+        <v>0.01062719176248979</v>
+      </c>
+      <c r="P25">
+        <v>0.01062719176248978</v>
+      </c>
+      <c r="Q25">
+        <v>12.64375053514333</v>
+      </c>
+      <c r="R25">
+        <v>113.79375481629</v>
+      </c>
+      <c r="S25">
+        <v>0.001383634505147913</v>
+      </c>
+      <c r="T25">
+        <v>0.001383634505147912</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>108.3486913333333</v>
+      </c>
+      <c r="H26">
+        <v>325.046074</v>
+      </c>
+      <c r="I26">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="J26">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.025778</v>
+      </c>
+      <c r="N26">
+        <v>9.077334</v>
+      </c>
+      <c r="O26">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="P26">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="Q26">
+        <v>327.8390865651907</v>
+      </c>
+      <c r="R26">
+        <v>2950.551779086716</v>
+      </c>
+      <c r="S26">
+        <v>0.03587618017667802</v>
+      </c>
+      <c r="T26">
+        <v>0.03587618017667801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>59.73425133333333</v>
+      </c>
+      <c r="H27">
+        <v>179.202754</v>
+      </c>
+      <c r="I27">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="J27">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>7.582021999999999</v>
+      </c>
+      <c r="N27">
+        <v>22.746066</v>
+      </c>
+      <c r="O27">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="P27">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="Q27">
+        <v>452.9064077628626</v>
+      </c>
+      <c r="R27">
+        <v>4076.157669865764</v>
+      </c>
+      <c r="S27">
+        <v>0.04956258284608613</v>
+      </c>
+      <c r="T27">
+        <v>0.04956258284608613</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>59.73425133333333</v>
+      </c>
+      <c r="H28">
+        <v>179.202754</v>
+      </c>
+      <c r="I28">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="J28">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.52837</v>
+      </c>
+      <c r="O28">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="P28">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="Q28">
+        <v>10.52059545899778</v>
+      </c>
+      <c r="R28">
+        <v>94.68535913098</v>
+      </c>
+      <c r="S28">
+        <v>0.001151292794911723</v>
+      </c>
+      <c r="T28">
+        <v>0.001151292794911723</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>59.73425133333333</v>
+      </c>
+      <c r="H29">
+        <v>179.202754</v>
+      </c>
+      <c r="I29">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="J29">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.08017533333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.240526</v>
+      </c>
+      <c r="O29">
+        <v>0.007301415158788918</v>
+      </c>
+      <c r="P29">
+        <v>0.007301415158788917</v>
+      </c>
+      <c r="Q29">
+        <v>4.789213512067112</v>
+      </c>
+      <c r="R29">
+        <v>43.102921608604</v>
+      </c>
+      <c r="S29">
+        <v>0.0005240945753713065</v>
+      </c>
+      <c r="T29">
+        <v>0.0005240945753713065</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>59.73425133333333</v>
+      </c>
+      <c r="H30">
+        <v>179.202754</v>
+      </c>
+      <c r="I30">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="J30">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.116695</v>
+      </c>
+      <c r="N30">
+        <v>0.350085</v>
+      </c>
+      <c r="O30">
+        <v>0.01062719176248979</v>
+      </c>
+      <c r="P30">
+        <v>0.01062719176248978</v>
+      </c>
+      <c r="Q30">
+        <v>6.970688459343333</v>
+      </c>
+      <c r="R30">
+        <v>62.73619613408999</v>
+      </c>
+      <c r="S30">
+        <v>0.0007628183623344829</v>
+      </c>
+      <c r="T30">
+        <v>0.0007628183623344828</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>59.73425133333333</v>
+      </c>
+      <c r="H31">
+        <v>179.202754</v>
+      </c>
+      <c r="I31">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="J31">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.025778</v>
+      </c>
+      <c r="N31">
+        <v>9.077334</v>
+      </c>
+      <c r="O31">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="P31">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="Q31">
+        <v>180.7425835308707</v>
+      </c>
+      <c r="R31">
+        <v>1626.683251777836</v>
+      </c>
+      <c r="S31">
+        <v>0.0197790738141969</v>
+      </c>
+      <c r="T31">
+        <v>0.0197790738141969</v>
       </c>
     </row>
   </sheetData>
